--- a/data/us_pop.xlsx
+++ b/data/us_pop.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlevinson/programs/parsons/spring-2019/thesis/project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlevinson/programs/parsons/spring-2019/thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4318EF-2A08-5B49-AD2C-7229D4C15E5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCC1E54-A2B8-534E-8225-52413CD7557A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="900" windowWidth="27640" windowHeight="16180" xr2:uid="{7A0B4568-165D-DF4C-9507-C8D0B3DA61BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -84,7 +84,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61148746-200D-9048-8FEE-2B1586A1FB0D}">
   <dimension ref="I5:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,7 +470,7 @@
         <v>328.84615384615381</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" ref="J13:J20" si="0">(I13-I12)/I12</f>
+        <f t="shared" ref="J13:J19" si="0">(I13-I12)/I12</f>
         <v>5.8823529411764176E-3</v>
       </c>
     </row>
